--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.7767729177405092</v>
+        <v>0.7362970845300184</v>
       </c>
       <c r="D2">
-        <v>0.4373292183728128</v>
+        <v>0.4665999738702449</v>
       </c>
       <c r="E2">
         <v>0.8617099801384411</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8692046734483803</v>
+        <v>0.8202600933124645</v>
       </c>
       <c r="D3">
-        <v>0.3847765902031841</v>
+        <v>0.4177816105352847</v>
       </c>
       <c r="E3">
         <v>0.8617099801384411</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2927742050568919</v>
+        <v>0.2232295455291295</v>
       </c>
       <c r="D4">
-        <v>0.7697068009272254</v>
+        <v>0.8246926429841099</v>
       </c>
       <c r="E4">
         <v>0.8617099801384411</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.9903459853781923</v>
+        <v>0.9643086159758357</v>
       </c>
       <c r="D5">
-        <v>0.3220525884655687</v>
+        <v>0.3417002327762781</v>
       </c>
       <c r="E5">
         <v>0.8617099801384411</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.008739296784861784</v>
+        <v>-0.009251586009557056</v>
       </c>
       <c r="D6">
-        <v>0.9930274847359899</v>
+        <v>0.9926724803319931</v>
       </c>
       <c r="E6">
         <v>0.8433234695383878</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.5828783919034297</v>
+        <v>-0.7591752114187625</v>
       </c>
       <c r="D7">
-        <v>0.5600012501720832</v>
+        <v>0.4529792443776581</v>
       </c>
       <c r="E7">
         <v>0.8433234695383878</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.1396526157530599</v>
+        <v>0.1703466144765603</v>
       </c>
       <c r="D8">
-        <v>0.8889400477565725</v>
+        <v>0.8657471940528998</v>
       </c>
       <c r="E8">
         <v>0.8433234695383878</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.6013612343299913</v>
+        <v>-0.616056509202926</v>
       </c>
       <c r="D9">
-        <v>0.5476264639727684</v>
+        <v>0.5419599843019625</v>
       </c>
       <c r="E9">
         <v>0.8435200672362697</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.1384189602235474</v>
+        <v>0.1387179134870179</v>
       </c>
       <c r="D10">
-        <v>0.8899148441416496</v>
+        <v>0.8904914404532021</v>
       </c>
       <c r="E10">
         <v>0.8435200672362697</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6902143841066846</v>
+        <v>0.6700993964502581</v>
       </c>
       <c r="D11">
-        <v>0.4900911666636629</v>
+        <v>0.5073205123181901</v>
       </c>
       <c r="E11">
         <v>0.8554616831357887</v>
